--- a/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/report-checklist.xlsx
+++ b/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\fse_2\accreditamento\accreditamento SEI\Documenti_da_Spedire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\fse_new\accreditamento\CLINICO\FORK\it-fse-accreditamento\GATEWAY\S1#060000000000XX\INSIEL\SEI\SEI 03.00.02.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22A6C8-AB45-4726-99C1-DAC27AE34364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E87850-D394-4E0C-9A4E-372299BEE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -2205,16 +2205,15 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2224,13 +2223,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,11 +2530,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="194.109375" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="194.140625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -3604,23 +3604,23 @@
       <pane xSplit="1" ySplit="16" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L130" sqref="L130"/>
+      <selection pane="bottomRight" activeCell="L150" sqref="L150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="4" width="63.88671875" customWidth="1"/>
-    <col min="5" max="5" width="104.6640625" customWidth="1"/>
-    <col min="6" max="9" width="33.33203125" customWidth="1"/>
-    <col min="10" max="10" width="33.109375" customWidth="1"/>
-    <col min="11" max="11" width="27.33203125" customWidth="1"/>
-    <col min="12" max="12" width="33.33203125" customWidth="1"/>
-    <col min="13" max="14" width="36.44140625" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" customWidth="1"/>
-    <col min="16" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" customWidth="1"/>
+    <col min="6" max="9" width="33.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="33.28515625" customWidth="1"/>
+    <col min="13" max="14" width="36.42578125" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" customWidth="1"/>
+    <col min="16" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1">
@@ -3636,12 +3636,12 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="41"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3654,14 +3654,14 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43"/>
+      <c r="D3" s="41"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3674,12 +3674,12 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="51" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3693,12 +3693,12 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3711,8 +3711,8 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3755,15 +3755,15 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="18">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:15" ht="18.75">
+      <c r="A9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="52" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3775,15 +3775,15 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:15" ht="15.75">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="41"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3795,13 +3795,13 @@
       <c r="N10" s="9"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="53" t="s">
+    <row r="11" spans="1:15" ht="15.75">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3814,13 +3814,13 @@
       <c r="N11" s="9"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.6">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="53" t="s">
+    <row r="12" spans="1:15" ht="15.75">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="41"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3862,7 +3862,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" thickBot="1">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3874,7 +3874,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="18.600000000000001" thickBot="1">
+    <row r="16" spans="1:15" ht="19.5" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="144.6" hidden="1" thickBot="1">
+    <row r="17" spans="1:15" ht="165.75" hidden="1" thickBot="1">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="144.6" hidden="1" thickBot="1">
+    <row r="18" spans="1:15" ht="165.75" hidden="1" thickBot="1">
       <c r="A18" s="14">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" spans="1:15" ht="130.19999999999999" thickBot="1">
+    <row r="39" spans="1:15" ht="150.75" thickBot="1">
       <c r="A39" s="14">
         <v>25</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" spans="1:15" ht="130.19999999999999" thickBot="1">
+    <row r="40" spans="1:15" ht="150.75" thickBot="1">
       <c r="A40" s="14">
         <v>26</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="N40" s="20"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" spans="1:15" ht="130.19999999999999" thickBot="1">
+    <row r="41" spans="1:15" ht="150.75" thickBot="1">
       <c r="A41" s="14">
         <v>27</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" spans="1:15" ht="101.4" thickBot="1">
+    <row r="47" spans="1:15" ht="120.75" thickBot="1">
       <c r="A47" s="14">
         <v>35</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" spans="1:15" ht="115.8" thickBot="1">
+    <row r="53" spans="1:15" ht="135.75" thickBot="1">
       <c r="A53" s="14">
         <v>43</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" spans="1:15" ht="43.8" hidden="1" thickBot="1">
+    <row r="58" spans="1:15" ht="45.75" hidden="1" thickBot="1">
       <c r="A58" s="14">
         <v>50</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" spans="1:15" ht="43.8" thickBot="1">
+    <row r="59" spans="1:15" ht="45.75" thickBot="1">
       <c r="A59" s="14">
         <v>51</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" spans="1:15" ht="115.8" hidden="1" thickBot="1">
+    <row r="129" spans="1:15" ht="120.75" hidden="1" thickBot="1">
       <c r="A129" s="14">
         <v>121</v>
       </c>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" spans="1:15" ht="101.4" thickBot="1">
+    <row r="130" spans="1:15" ht="105.75" thickBot="1">
       <c r="A130" s="14">
         <v>122</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" spans="1:15" ht="101.4" thickBot="1">
+    <row r="131" spans="1:15" ht="105.75" thickBot="1">
       <c r="A131" s="14">
         <v>123</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>87</v>
       </c>
       <c r="L131" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M131" s="19"/>
       <c r="N131" s="20" t="s">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" spans="1:15" ht="115.8" thickBot="1">
+    <row r="132" spans="1:15" ht="120.75" thickBot="1">
       <c r="A132" s="14">
         <v>124</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>87</v>
       </c>
       <c r="L132" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M132" s="19"/>
       <c r="N132" s="20" t="s">
@@ -7307,7 +7307,7 @@
       </c>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" spans="1:15" ht="115.8" thickBot="1">
+    <row r="133" spans="1:15" ht="120.75" thickBot="1">
       <c r="A133" s="14">
         <v>125</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" spans="1:15" ht="101.4" thickBot="1">
+    <row r="134" spans="1:15" ht="105.75" thickBot="1">
       <c r="A134" s="14">
         <v>126</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>87</v>
       </c>
       <c r="L134" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M134" s="19"/>
       <c r="N134" s="20" t="s">
@@ -7418,7 +7418,7 @@
         <v>87</v>
       </c>
       <c r="L135" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M135" s="19"/>
       <c r="N135" s="20" t="s">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" spans="1:15" ht="101.4" thickBot="1">
+    <row r="136" spans="1:15" ht="120.75" thickBot="1">
       <c r="A136" s="14">
         <v>128</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>87</v>
       </c>
       <c r="L136" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M136" s="19"/>
       <c r="N136" s="20" t="s">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" spans="1:15" ht="115.8" thickBot="1">
+    <row r="137" spans="1:15" ht="135.75" thickBot="1">
       <c r="A137" s="14">
         <v>129</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>87</v>
       </c>
       <c r="L137" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M137" s="19"/>
       <c r="N137" s="20" t="s">
@@ -7512,7 +7512,7 @@
       </c>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" spans="1:15" ht="173.4" thickBot="1">
+    <row r="138" spans="1:15" ht="195.75" thickBot="1">
       <c r="A138" s="14">
         <v>130</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>87</v>
       </c>
       <c r="L138" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M138" s="19"/>
       <c r="N138" s="20" t="s">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" spans="1:15" ht="101.4" thickBot="1">
+    <row r="139" spans="1:15" ht="105.75" thickBot="1">
       <c r="A139" s="14">
         <v>131</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>87</v>
       </c>
       <c r="L139" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M139" s="19"/>
       <c r="N139" s="20" t="s">
@@ -7598,7 +7598,7 @@
       </c>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" spans="1:15" ht="101.4" thickBot="1">
+    <row r="140" spans="1:15" ht="105.75" thickBot="1">
       <c r="A140" s="14">
         <v>132</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>87</v>
       </c>
       <c r="L140" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M140" s="19"/>
       <c r="N140" s="20" t="s">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" spans="1:15" ht="115.8" thickBot="1">
+    <row r="141" spans="1:15" ht="120.75" thickBot="1">
       <c r="A141" s="14">
         <v>133</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>87</v>
       </c>
       <c r="L141" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M141" s="19"/>
       <c r="N141" s="20" t="s">
@@ -7684,7 +7684,7 @@
       </c>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" spans="1:15" ht="101.4" thickBot="1">
+    <row r="142" spans="1:15" ht="105.75" thickBot="1">
       <c r="A142" s="14">
         <v>134</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" spans="1:15" ht="101.4" thickBot="1">
+    <row r="143" spans="1:15" ht="105.75" thickBot="1">
       <c r="A143" s="14">
         <v>135</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" spans="1:15" ht="101.4" thickBot="1">
+    <row r="144" spans="1:15" ht="105.75" thickBot="1">
       <c r="A144" s="14">
         <v>136</v>
       </c>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" spans="1:15" ht="115.8" thickBot="1">
+    <row r="145" spans="1:15" ht="120.75" thickBot="1">
       <c r="A145" s="14">
         <v>137</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>87</v>
       </c>
       <c r="L147" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M147" s="19"/>
       <c r="N147" s="20" t="s">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" spans="1:15" ht="408.9" customHeight="1" thickBot="1">
+    <row r="148" spans="1:15" ht="408.95" customHeight="1" thickBot="1">
       <c r="A148" s="14">
         <v>140</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>87</v>
       </c>
       <c r="L148" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M148" s="19"/>
       <c r="N148" s="20" t="s">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" spans="1:15" ht="115.8" thickBot="1">
+    <row r="149" spans="1:15" ht="120.75" thickBot="1">
       <c r="A149" s="14">
         <v>141</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" spans="1:15" ht="101.4" thickBot="1">
+    <row r="150" spans="1:15" ht="105.75" thickBot="1">
       <c r="A150" s="14">
         <v>142</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>87</v>
       </c>
       <c r="L150" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M150" s="19"/>
       <c r="N150" s="20" t="s">
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" spans="1:15" ht="101.4" thickBot="1">
+    <row r="151" spans="1:15" ht="105.75" thickBot="1">
       <c r="A151" s="14">
         <v>143</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>87</v>
       </c>
       <c r="L151" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M151" s="19"/>
       <c r="N151" s="20" t="s">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" spans="1:15" ht="101.4" thickBot="1">
+    <row r="152" spans="1:15" ht="105.75" thickBot="1">
       <c r="A152" s="14">
         <v>144</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>87</v>
       </c>
       <c r="L152" s="19" t="s">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="M152" s="19"/>
       <c r="N152" s="20" t="s">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" spans="1:15" ht="115.8" thickBot="1">
+    <row r="153" spans="1:15" ht="120.75" thickBot="1">
       <c r="A153" s="14">
         <v>145</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" spans="1:15" ht="115.2">
+    <row r="154" spans="1:15" ht="120">
       <c r="A154" s="14">
         <v>146</v>
       </c>
@@ -18312,12 +18312,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -18325,6 +18319,12 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18359,13 +18359,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" customWidth="1"/>
-    <col min="5" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -19469,11 +19469,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="26" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -20511,6 +20511,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA9DE3DB3C6091468D1D4005047F3381" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="459c8a6a3a88bd262a2ff1f0ba7a9f11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ae8219d-8505-4e64-b47a-e5e02bd99ff8" xmlns:ns3="b6c6c545-4433-4453-a388-ae81a1a09069" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd389b9c591f38f50631ea74e6d4f129" ns2:_="" ns3:_="">
     <xsd:import namespace="4ae8219d-8505-4e64-b47a-e5e02bd99ff8"/>
@@ -20675,22 +20690,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E747E4D-F730-40C6-A8F8-2F9A7E7D20D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95ECC0BC-4F25-4C28-8D71-435128C6580D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{930834C2-1270-4F71-9145-0250F90EC3B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20707,21 +20724,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95ECC0BC-4F25-4C28-8D71-435128C6580D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E747E4D-F730-40C6-A8F8-2F9A7E7D20D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/report-checklist.xlsx
+++ b/GATEWAY/S1#060000000000XX/INSIEL/SEI/SEI 03.00.02.01/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\fse_new\accreditamento\CLINICO\FORK\it-fse-accreditamento\GATEWAY\S1#060000000000XX\INSIEL\SEI\SEI 03.00.02.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\fse_new\accreditamento\FORK\it-fse-accreditamento\GATEWAY\S1#060000000000XX\INSIEL\SEI\SEI 03.00.02.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E87850-D394-4E0C-9A4E-372299BEE13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC9601E-7F82-410C-B1D9-96E5065B4FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -2205,15 +2205,16 @@
     <xf numFmtId="11" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -2223,14 +2224,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2530,11 +2530,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="194.140625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="194.109375" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -3601,26 +3601,26 @@
   <dimension ref="A1:O999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="16" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="16" topLeftCell="E151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L150" sqref="L150"/>
+      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
-    <col min="6" max="9" width="33.28515625" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="33.28515625" customWidth="1"/>
-    <col min="13" max="14" width="36.42578125" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="63.88671875" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" customWidth="1"/>
+    <col min="6" max="9" width="33.33203125" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="33.33203125" customWidth="1"/>
+    <col min="13" max="14" width="36.44140625" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" hidden="1" customHeight="1">
@@ -3636,12 +3636,12 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="33" hidden="1" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="43"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3654,14 +3654,14 @@
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="43"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3674,12 +3674,12 @@
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="53" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="2"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3693,12 +3693,12 @@
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="53" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="43"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -3711,8 +3711,8 @@
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="10"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3755,15 +3755,15 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" ht="18.75">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:15" ht="18">
+      <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="43"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
@@ -3775,15 +3775,15 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:15" ht="15.6">
+      <c r="A10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="43"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -3795,13 +3795,13 @@
       <c r="N10" s="9"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="42" t="s">
+    <row r="11" spans="1:15" ht="15.6">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="2"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3814,13 +3814,13 @@
       <c r="N11" s="9"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="42" t="s">
+    <row r="12" spans="1:15" ht="15.6">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="43"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3862,7 +3862,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+    <row r="15" spans="1:15" thickBot="1">
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -3874,7 +3874,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" thickBot="1">
+    <row r="16" spans="1:15" ht="18.600000000000001" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="165.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:15" ht="144.6" hidden="1" thickBot="1">
       <c r="A17" s="14">
         <v>1</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="N17" s="20"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="1:15" ht="165.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:15" ht="144.6" hidden="1" thickBot="1">
       <c r="A18" s="14">
         <v>2</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" spans="1:15" ht="150.75" thickBot="1">
+    <row r="39" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A39" s="14">
         <v>25</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" spans="1:15" ht="150.75" thickBot="1">
+    <row r="40" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A40" s="14">
         <v>26</v>
       </c>
@@ -4589,7 +4589,7 @@
       <c r="N40" s="20"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" spans="1:15" ht="150.75" thickBot="1">
+    <row r="41" spans="1:15" ht="130.19999999999999" thickBot="1">
       <c r="A41" s="14">
         <v>27</v>
       </c>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" spans="1:15" ht="120.75" thickBot="1">
+    <row r="47" spans="1:15" ht="101.4" thickBot="1">
       <c r="A47" s="14">
         <v>35</v>
       </c>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" spans="1:15" ht="135.75" thickBot="1">
+    <row r="53" spans="1:15" ht="115.8" thickBot="1">
       <c r="A53" s="14">
         <v>43</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" spans="1:15" ht="45.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:15" ht="43.8" hidden="1" thickBot="1">
       <c r="A58" s="14">
         <v>50</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" spans="1:15" ht="45.75" thickBot="1">
+    <row r="59" spans="1:15" ht="43.8" thickBot="1">
       <c r="A59" s="14">
         <v>51</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" spans="1:15" ht="120.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:15" ht="115.8" hidden="1" thickBot="1">
       <c r="A129" s="14">
         <v>121</v>
       </c>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" spans="1:15" ht="105.75" thickBot="1">
+    <row r="130" spans="1:15" ht="101.4" thickBot="1">
       <c r="A130" s="14">
         <v>122</v>
       </c>
@@ -7221,7 +7221,7 @@
       </c>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" spans="1:15" ht="105.75" thickBot="1">
+    <row r="131" spans="1:15" ht="101.4" thickBot="1">
       <c r="A131" s="14">
         <v>123</v>
       </c>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" spans="1:15" ht="120.75" thickBot="1">
+    <row r="132" spans="1:15" ht="115.8" thickBot="1">
       <c r="A132" s="14">
         <v>124</v>
       </c>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" spans="1:15" ht="120.75" thickBot="1">
+    <row r="133" spans="1:15" ht="115.8" thickBot="1">
       <c r="A133" s="14">
         <v>125</v>
       </c>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" spans="1:15" ht="105.75" thickBot="1">
+    <row r="134" spans="1:15" ht="101.4" thickBot="1">
       <c r="A134" s="14">
         <v>126</v>
       </c>
@@ -7426,7 +7426,7 @@
       </c>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" spans="1:15" ht="120.75" thickBot="1">
+    <row r="136" spans="1:15" ht="101.4" thickBot="1">
       <c r="A136" s="14">
         <v>128</v>
       </c>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" spans="1:15" ht="135.75" thickBot="1">
+    <row r="137" spans="1:15" ht="115.8" thickBot="1">
       <c r="A137" s="14">
         <v>129</v>
       </c>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" spans="1:15" ht="195.75" thickBot="1">
+    <row r="138" spans="1:15" ht="173.4" thickBot="1">
       <c r="A138" s="14">
         <v>130</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" spans="1:15" ht="105.75" thickBot="1">
+    <row r="139" spans="1:15" ht="101.4" thickBot="1">
       <c r="A139" s="14">
         <v>131</v>
       </c>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" spans="1:15" ht="105.75" thickBot="1">
+    <row r="140" spans="1:15" ht="101.4" thickBot="1">
       <c r="A140" s="14">
         <v>132</v>
       </c>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" spans="1:15" ht="120.75" thickBot="1">
+    <row r="141" spans="1:15" ht="115.8" thickBot="1">
       <c r="A141" s="14">
         <v>133</v>
       </c>
@@ -7684,7 +7684,7 @@
       </c>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" spans="1:15" ht="105.75" thickBot="1">
+    <row r="142" spans="1:15" ht="101.4" thickBot="1">
       <c r="A142" s="14">
         <v>134</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" spans="1:15" ht="105.75" thickBot="1">
+    <row r="143" spans="1:15" ht="101.4" thickBot="1">
       <c r="A143" s="14">
         <v>135</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" spans="1:15" ht="105.75" thickBot="1">
+    <row r="144" spans="1:15" ht="101.4" thickBot="1">
       <c r="A144" s="14">
         <v>136</v>
       </c>
@@ -7783,7 +7783,7 @@
       </c>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" spans="1:15" ht="120.75" thickBot="1">
+    <row r="145" spans="1:15" ht="115.8" thickBot="1">
       <c r="A145" s="14">
         <v>137</v>
       </c>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" spans="1:15" ht="408.95" customHeight="1" thickBot="1">
+    <row r="148" spans="1:15" ht="408.9" customHeight="1" thickBot="1">
       <c r="A148" s="14">
         <v>140</v>
       </c>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" spans="1:15" ht="120.75" thickBot="1">
+    <row r="149" spans="1:15" ht="115.8" thickBot="1">
       <c r="A149" s="14">
         <v>141</v>
       </c>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" spans="1:15" ht="105.75" thickBot="1">
+    <row r="150" spans="1:15" ht="101.4" thickBot="1">
       <c r="A150" s="14">
         <v>142</v>
       </c>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" spans="1:15" ht="105.75" thickBot="1">
+    <row r="151" spans="1:15" ht="101.4" thickBot="1">
       <c r="A151" s="14">
         <v>143</v>
       </c>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" spans="1:15" ht="105.75" thickBot="1">
+    <row r="152" spans="1:15" ht="101.4" thickBot="1">
       <c r="A152" s="14">
         <v>144</v>
       </c>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" spans="1:15" ht="120.75" thickBot="1">
+    <row r="153" spans="1:15" ht="115.8" thickBot="1">
       <c r="A153" s="14">
         <v>145</v>
       </c>
@@ -8130,7 +8130,7 @@
       </c>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" spans="1:15" ht="120">
+    <row r="154" spans="1:15" ht="115.2">
       <c r="A154" s="14">
         <v>146</v>
       </c>
@@ -18312,6 +18312,12 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -18319,12 +18325,6 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18359,13 +18359,13 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" customWidth="1"/>
+    <col min="5" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1">
@@ -19469,11 +19469,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="26" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1">
@@ -20511,21 +20511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BA9DE3DB3C6091468D1D4005047F3381" ma:contentTypeVersion="4" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="459c8a6a3a88bd262a2ff1f0ba7a9f11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ae8219d-8505-4e64-b47a-e5e02bd99ff8" xmlns:ns3="b6c6c545-4433-4453-a388-ae81a1a09069" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd389b9c591f38f50631ea74e6d4f129" ns2:_="" ns3:_="">
     <xsd:import namespace="4ae8219d-8505-4e64-b47a-e5e02bd99ff8"/>
@@ -20690,24 +20675,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E747E4D-F730-40C6-A8F8-2F9A7E7D20D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95ECC0BC-4F25-4C28-8D71-435128C6580D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{930834C2-1270-4F71-9145-0250F90EC3B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20724,4 +20707,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95ECC0BC-4F25-4C28-8D71-435128C6580D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E747E4D-F730-40C6-A8F8-2F9A7E7D20D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>